--- a/Essential Statistics for Data Analysis using Excel/Module1Homework-NEW/CategoricalDataHW.xlsx
+++ b/Essential Statistics for Data Analysis using Excel/Module1Homework-NEW/CategoricalDataHW.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winston\Documents\statsmicrosoft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramneekm\Documents\datasc\Essential Statistics for Data Analysis using Excel\Module1Homework-NEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10905" windowHeight="7410" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,11 @@
     <sheet name="Question 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="13" r:id="rId4"/>
+    <pivotCache cacheId="27" r:id="rId5"/>
+    <pivotCache cacheId="33" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="109">
   <si>
     <t>White</t>
   </si>
@@ -300,6 +305,60 @@
   <si>
     <t>CH</t>
   </si>
+  <si>
+    <t>Colors</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Colors</t>
+  </si>
+  <si>
+    <t>Sum of Population estimate, July 1, 2015</t>
+  </si>
+  <si>
+    <t>Count of State</t>
+  </si>
+  <si>
+    <t>0-4999999</t>
+  </si>
+  <si>
+    <t>5000000-9999999</t>
+  </si>
+  <si>
+    <t>10000000-14999999</t>
+  </si>
+  <si>
+    <t>15000000-19999999</t>
+  </si>
+  <si>
+    <t>20000000-24999999</t>
+  </si>
+  <si>
+    <t>25000000-29999999</t>
+  </si>
+  <si>
+    <t>35000000-39999999</t>
+  </si>
+  <si>
+    <t>Count of Outcome</t>
+  </si>
+  <si>
+    <t>CH Total</t>
+  </si>
+  <si>
+    <t>ER Total</t>
+  </si>
+  <si>
+    <t>High Total</t>
+  </si>
+  <si>
+    <t>Low Total</t>
+  </si>
 </sst>
 </file>
 
@@ -348,12 +407,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,6 +440,7738 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[CategoricalDataHW.xlsx]Question 1!PivotTable7</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Question 1'!$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Question 1'!$H$15:$H$23</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Black</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Blue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Brown </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Green</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Grey</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Red</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Silver</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Question 1'!$I$15:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38C2-4C8A-9EDB-99086EF3B898}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="463516360"/>
+        <c:axId val="463518000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="463516360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463518000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="463518000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="463516360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[CategoricalDataHW.xlsx]Question 1!PivotTable7</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Question 1'!$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Question 1'!$H$15:$H$23</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Black</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Blue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Brown </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Green</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Grey</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Red</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Silver</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Question 1'!$I$15:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C58-4EED-9FFE-C2AB0817866C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[CategoricalDataHW.xlsx]Question 3!PivotTable9</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Question 3'!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Question 3'!$O$6:$O$14</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CH</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ER</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CH</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>ER</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Question 3'!$P$6:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.12087912087912088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87912087912087911</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8190045248868778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18099547511312217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1992-4D1C-B3DA-75BF59E110AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="642849136"/>
+        <c:axId val="642848152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="642849136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642848152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="642848152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642849136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54C9D9A-A34C-4C91-B2F6-F5A93027FD59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0144E55-DABF-44BB-BCC8-39B88BB2ED5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B918AB1-3790-4547-8FAA-7000085F2B7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ramneek singh" refreshedDate="42898.716887499999" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="500">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="F12:F512" sheet="Question 1"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Colors" numFmtId="0">
+      <sharedItems count="8">
+        <s v="Silver"/>
+        <s v="Black"/>
+        <s v="Red"/>
+        <s v="White"/>
+        <s v="Grey"/>
+        <s v="Green"/>
+        <s v="Blue"/>
+        <s v="Brown "/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ramneek singh" refreshedDate="42898.72525023148" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="52">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C11:D63" sheet="Question 2"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="State" numFmtId="0">
+      <sharedItems count="52">
+        <s v=" California"/>
+        <s v=" Texas"/>
+        <s v=" Florida"/>
+        <s v=" New York"/>
+        <s v=" Illinois"/>
+        <s v=" Pennsylvania"/>
+        <s v=" Ohio"/>
+        <s v=" Georgia"/>
+        <s v=" North Carolina"/>
+        <s v=" Michigan"/>
+        <s v=" New Jersey"/>
+        <s v=" Virginia"/>
+        <s v=" Washington"/>
+        <s v=" Arizona"/>
+        <s v=" Massachusetts"/>
+        <s v=" Indiana"/>
+        <s v=" Tennessee"/>
+        <s v=" Missouri"/>
+        <s v=" Maryland"/>
+        <s v=" Wisconsin"/>
+        <s v=" Minnesota"/>
+        <s v=" Colorado"/>
+        <s v=" South Carolina"/>
+        <s v=" Alabama"/>
+        <s v=" Louisiana"/>
+        <s v=" Kentucky"/>
+        <s v=" Oregon"/>
+        <s v=" Oklahoma"/>
+        <s v=" Connecticut"/>
+        <s v=" Puerto Rico"/>
+        <s v=" Iowa"/>
+        <s v=" Utah"/>
+        <s v=" Mississippi"/>
+        <s v=" Arkansas"/>
+        <s v=" Kansas"/>
+        <s v=" Nevada"/>
+        <s v=" New Mexico"/>
+        <s v=" Nebraska"/>
+        <s v=" West Virginia"/>
+        <s v=" Idaho"/>
+        <s v=" Hawaii"/>
+        <s v=" New Hampshire"/>
+        <s v=" Maine"/>
+        <s v=" Rhode Island"/>
+        <s v=" Montana"/>
+        <s v=" Delaware"/>
+        <s v=" South Dakota"/>
+        <s v="  North Dakota"/>
+        <s v=" Alaska"/>
+        <s v=" District of Columbia"/>
+        <s v=" Vermont"/>
+        <s v=" Wyoming"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Population estimate, July 1, 2015" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="586107" maxValue="39144818" count="52">
+        <n v="39144818"/>
+        <n v="27469114"/>
+        <n v="20271272"/>
+        <n v="19795791"/>
+        <n v="12859995"/>
+        <n v="12802503"/>
+        <n v="11613423"/>
+        <n v="10214860"/>
+        <n v="10042802"/>
+        <n v="9922576"/>
+        <n v="8958013"/>
+        <n v="8382993"/>
+        <n v="7170351"/>
+        <n v="6828065"/>
+        <n v="6794422"/>
+        <n v="6619680"/>
+        <n v="6600299"/>
+        <n v="6083672"/>
+        <n v="6006401"/>
+        <n v="5771337"/>
+        <n v="5489594"/>
+        <n v="5456574"/>
+        <n v="4896146"/>
+        <n v="4858979"/>
+        <n v="4670724"/>
+        <n v="4425092"/>
+        <n v="4028977"/>
+        <n v="3911338"/>
+        <n v="3590886"/>
+        <n v="3474182"/>
+        <n v="3123899"/>
+        <n v="2995919"/>
+        <n v="2992333"/>
+        <n v="2978204"/>
+        <n v="2911641"/>
+        <n v="2890845"/>
+        <n v="2085109"/>
+        <n v="1896190"/>
+        <n v="1844128"/>
+        <n v="1654930"/>
+        <n v="1431603"/>
+        <n v="1330608"/>
+        <n v="1329328"/>
+        <n v="1056298"/>
+        <n v="1032949"/>
+        <n v="945934"/>
+        <n v="858469"/>
+        <n v="756927"/>
+        <n v="738432"/>
+        <n v="672228"/>
+        <n v="626042"/>
+        <n v="586107"/>
+      </sharedItems>
+      <fieldGroup base="1">
+        <rangePr autoStart="0" autoEnd="0" startNum="0" endNum="50000000" groupInterval="5000000"/>
+        <groupItems count="12">
+          <s v="&lt;0"/>
+          <s v="0-4999999"/>
+          <s v="5000000-9999999"/>
+          <s v="10000000-14999999"/>
+          <s v="15000000-19999999"/>
+          <s v="20000000-24999999"/>
+          <s v="25000000-29999999"/>
+          <s v="30000000-34999999"/>
+          <s v="35000000-39999999"/>
+          <s v="40000000-44999999"/>
+          <s v="45000000-50000000"/>
+          <s v="&gt;50000000"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ramneek singh" refreshedDate="42898.762106134258" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="403">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="K7:M410" sheet="Question 3"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Hospital" numFmtId="0">
+      <sharedItems count="2">
+        <s v="ER"/>
+        <s v="CH"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Risk Category" numFmtId="0">
+      <sharedItems count="2">
+        <s v="High"/>
+        <s v="Low"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Outcome" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Die"/>
+        <s v="Live"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="500">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="52">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="51"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="403">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Colors">
+  <location ref="H14:I23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Colors" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="F3:H11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" subtotalTop="0" showAll="0">
+      <items count="53">
+        <item x="47"/>
+        <item x="23"/>
+        <item x="48"/>
+        <item x="13"/>
+        <item x="33"/>
+        <item x="0"/>
+        <item x="21"/>
+        <item x="28"/>
+        <item x="45"/>
+        <item x="49"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="40"/>
+        <item x="39"/>
+        <item x="4"/>
+        <item x="15"/>
+        <item x="30"/>
+        <item x="34"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="42"/>
+        <item x="18"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="20"/>
+        <item x="32"/>
+        <item x="17"/>
+        <item x="44"/>
+        <item x="37"/>
+        <item x="35"/>
+        <item x="41"/>
+        <item x="10"/>
+        <item x="36"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="5"/>
+        <item x="29"/>
+        <item x="43"/>
+        <item x="22"/>
+        <item x="46"/>
+        <item x="16"/>
+        <item x="1"/>
+        <item x="31"/>
+        <item x="50"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="38"/>
+        <item x="19"/>
+        <item x="51"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" numFmtId="3" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Population estimate, July 1, 2015" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Count of State" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O18:P27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Outcome" fld="2" subtotal="count" showDataAs="percentOfTotal" baseField="1" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="O5:P14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Outcome" fld="2" subtotal="count" baseField="0" baseItem="0" numFmtId="10">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
+          <x14:dataField pivotShowAs="percentOfParentRow"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -634,21 +8437,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:F512"/>
+  <dimension ref="B6:I512"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -656,7 +8463,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>81</v>
       </c>
@@ -664,7 +8471,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -672,7 +8479,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
@@ -680,7 +8487,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
@@ -688,110 +8495,173 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>2</v>
       </c>
@@ -3198,24 +11068,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E63"/>
+  <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="58" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>67</v>
       </c>
@@ -3223,57 +11100,142 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="6">
+        <v>70594447</v>
+      </c>
+      <c r="H4" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="6">
+        <v>90083977</v>
+      </c>
+      <c r="H5" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="6">
+        <v>57533583</v>
+      </c>
+      <c r="H6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="6">
+        <v>19795791</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="6">
+        <v>20271272</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="6">
+        <v>27469114</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="6">
+        <v>39144818</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>66</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="6">
+        <v>324893002</v>
+      </c>
+      <c r="H11" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -3281,7 +11243,7 @@
         <v>39144818</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -3289,7 +11251,7 @@
         <v>27469114</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -3297,7 +11259,7 @@
         <v>20271272</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -3305,7 +11267,7 @@
         <v>19795791</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -3696,18 +11658,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:M410"/>
+  <dimension ref="C5:P410"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>71</v>
       </c>
@@ -3726,8 +11704,14 @@
       <c r="M7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="O7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0.12087912087912088</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>76</v>
       </c>
@@ -3746,8 +11730,14 @@
       <c r="M8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="O8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0.87912087912087911</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>72</v>
       </c>
@@ -3766,8 +11756,14 @@
       <c r="M9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="O9" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0.45161290322580644</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>73</v>
       </c>
@@ -3786,8 +11782,12 @@
       <c r="M10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="O10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>74</v>
       </c>
@@ -3806,8 +11806,14 @@
       <c r="M11" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="O11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0.8190045248868778</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>75</v>
       </c>
@@ -3826,8 +11832,14 @@
       <c r="M12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="O12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="10">
+        <v>0.18099547511312217</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>74</v>
       </c>
@@ -3846,8 +11858,14 @@
       <c r="M13" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="O13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13" s="10">
+        <v>0.54838709677419351</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>77</v>
       </c>
@@ -3866,8 +11884,14 @@
       <c r="M14" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>78</v>
       </c>
@@ -3887,7 +11911,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>79</v>
       </c>
@@ -3907,7 +11931,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>80</v>
       </c>
@@ -3927,7 +11951,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -3944,8 +11968,14 @@
       <c r="M18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="O18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +11985,12 @@
       <c r="M19" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="O19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="K20" t="s">
         <v>85</v>
       </c>
@@ -3966,8 +12000,14 @@
       <c r="M20" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="O20" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20" s="10">
+        <v>5.4590570719602979E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
         <v>85</v>
       </c>
@@ -3977,8 +12017,14 @@
       <c r="M21" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="O21" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" s="10">
+        <v>0.4491315136476427</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
         <v>85</v>
       </c>
@@ -3988,8 +12034,14 @@
       <c r="M22" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="O22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P22" s="10">
+        <v>0.50372208436724564</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="K23" t="s">
         <v>85</v>
       </c>
@@ -3999,8 +12051,12 @@
       <c r="M23" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="O23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
         <v>85</v>
       </c>
@@ -4010,8 +12066,14 @@
       <c r="M24" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="O24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" s="10">
+        <v>0.3970223325062035</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="K25" t="s">
         <v>85</v>
       </c>
@@ -4021,8 +12083,14 @@
       <c r="M25" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="O25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" s="10">
+        <v>9.9255583126550875E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="K26" t="s">
         <v>85</v>
       </c>
@@ -4032,8 +12100,14 @@
       <c r="M26" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="O26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" s="10">
+        <v>0.49627791563275436</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
         <v>85</v>
       </c>
@@ -4043,8 +12117,14 @@
       <c r="M27" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="O27" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
         <v>85</v>
       </c>
@@ -4055,7 +12135,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
         <v>85</v>
       </c>
@@ -4066,7 +12146,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
         <v>85</v>
       </c>
@@ -4077,7 +12157,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
         <v>85</v>
       </c>
@@ -4088,7 +12168,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
         <v>85</v>
       </c>
@@ -8259,5 +16339,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>